--- a/biology/Zoologie/Diplodocoidea/Diplodocoidea.xlsx
+++ b/biology/Zoologie/Diplodocoidea/Diplodocoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Diplodocoidea forment une super-famille de dinosaures sauropodes néosauropodes qui ont vécu sur les deux grands supercontinents du Gondwana et de la Laurasia du Jurassique supérieur (Kimméridgien) jusqu'au cours du Crétacé supérieur (Coniacien), soit il y a environ entre 157 et 86 Ma (millions d'années)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Diplodocoidea forment une super-famille de dinosaures sauropodes néosauropodes qui ont vécu sur les deux grands supercontinents du Gondwana et de la Laurasia du Jurassique supérieur (Kimméridgien) jusqu'au cours du Crétacé supérieur (Coniacien), soit il y a environ entre 157 et 86 Ma (millions d'années).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diplodocoidea sont habituellement munis d'un long cou horizontal, d'une queue démesurément longue et de membres antérieurs et postérieurs relativement étroits et de hauteur semblable. Ils se distinguent des autres sauropodes par un crâne allongé et faiblement élevé, des narines externes fortement rétractées vers l'arrière du crâne et un museau rectangulaire pourvu de dents longilignes formant un véritable peigne au niveau des mâchoires.
 Certains Diplodocoidea comme Seismosaurus, Supersaurus, Argentinosaurus, Turiasaurus... furent gigantesques, atteignant des tailles de plus de 30 mètres de longueur. Les Diplodocoidea comprennent ainsi certains des animaux terrestres les plus grands à avoir existé sur notre planète. D'autres en revanche furent relativement petits et munis d'un cou particulièrement court, comme le Dicraeosauridae Brachytrachelopan. Ce raccourcissement du cou est lié à la colonisation d'une nouvelle niche écologique occupée par des animaux brouteurs comme les thyréophores et les cératopsiens. Certains Dicraeosauridae avaient une silhouette particulièrement remarquable pour des sauropodes, en raison des extensions dorsales de leurs vertèbres, comme Amargasaurus ou Bajadasaurus.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxonomie
-Super-famille des Diplodocoidea
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Super-famille des Diplodocoidea
 Amazonsaurus
 Histriasaurus
 Famille des Rebbachisauridae
@@ -565,21 +584,55 @@
 Dyslocosaurus
 ? Dystrophaeus
 Suuwassea
-Famille des Diplodocidae[3]
-Amphicoelias[4]
-Sous-famille des Apatosaurinae[3]
+Famille des Diplodocidae
+Amphicoelias
+Sous-famille des Apatosaurinae
 Apatosaurus
 Brontosaurus, anciennement Eobrontosaurus et Elosaurus
-Sous-famille des Diplodocinae[3]
+Sous-famille des Diplodocinae
 Tornieria
 Supersaurus
 Leinkupal
 Galeamopus
 Diplodocus
 Kaatedocus
-Barosaurus
-Classification
-L'analyse phylogénétique des Diplodocoidea réalisée par Emanuel Tschopp, Octavio Mateus et Roger B.J. Benson en 2015 conduit au cladogramme suivant[3] :
+Barosaurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diplodocoidea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diplodocoidea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique des Diplodocoidea réalisée par Emanuel Tschopp, Octavio Mateus et Roger B.J. Benson en 2015 conduit au cladogramme suivant :
 </t>
         </is>
       </c>
